--- a/Code/Results/Cases/Case_3_134/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_134/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.150895792750703</v>
+        <v>0.5465782294729991</v>
       </c>
       <c r="C2">
-        <v>0.0866691999141338</v>
+        <v>0.130785156080016</v>
       </c>
       <c r="D2">
-        <v>0.06731707937635889</v>
+        <v>0.03857308883073074</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5013885284390653</v>
+        <v>0.8229815943559302</v>
       </c>
       <c r="G2">
-        <v>0.00080570486715767</v>
+        <v>0.002445606924888623</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3623662573305815</v>
+        <v>0.7804802698082511</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9334653225405418</v>
+        <v>0.3131678726726363</v>
       </c>
       <c r="L2">
-        <v>0.402229456678981</v>
+        <v>0.3022555150796791</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7623897509184325</v>
+        <v>1.581513752659225</v>
       </c>
       <c r="O2">
-        <v>1.488366017422294</v>
+        <v>2.889399287511651</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.000527572686849</v>
+        <v>0.5040314255320766</v>
       </c>
       <c r="C3">
-        <v>0.08525085524983567</v>
+        <v>0.1303508687859534</v>
       </c>
       <c r="D3">
-        <v>0.06091724416435795</v>
+        <v>0.03634294272045224</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4766574800231282</v>
+        <v>0.8224782102880326</v>
       </c>
       <c r="G3">
-        <v>0.0008090647724211568</v>
+        <v>0.002447861849060158</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3606991606194541</v>
+        <v>0.7853910922506415</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8126119677422707</v>
+        <v>0.2768638645424062</v>
       </c>
       <c r="L3">
-        <v>0.3549474640569343</v>
+        <v>0.2909814548076071</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8001374916359238</v>
+        <v>1.59778547477941</v>
       </c>
       <c r="O3">
-        <v>1.452095850431874</v>
+        <v>2.900550683057574</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9084701878646229</v>
+        <v>0.4780530861884245</v>
       </c>
       <c r="C4">
-        <v>0.08438949887312219</v>
+        <v>0.1300886977999873</v>
       </c>
       <c r="D4">
-        <v>0.05697090154298934</v>
+        <v>0.03495945229420983</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4623565508791501</v>
+        <v>0.8226300606944434</v>
       </c>
       <c r="G4">
-        <v>0.0008111991811941466</v>
+        <v>0.002449321403288607</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3603550176131023</v>
+        <v>0.788780804884567</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7384615137988675</v>
+        <v>0.2545689930595643</v>
       </c>
       <c r="L4">
-        <v>0.3262983928512142</v>
+        <v>0.284229878446439</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8243153712766027</v>
+        <v>1.608289682939263</v>
       </c>
       <c r="O4">
-        <v>1.432639936721415</v>
+        <v>2.908896192161137</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8710109342852661</v>
+        <v>0.4675039860581478</v>
       </c>
       <c r="C5">
-        <v>0.08404084207304408</v>
+        <v>0.1299830086135749</v>
       </c>
       <c r="D5">
-        <v>0.05535825207759615</v>
+        <v>0.03439213045037093</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4567403866688196</v>
+        <v>0.8228079177683654</v>
       </c>
       <c r="G5">
-        <v>0.0008120871954207565</v>
+        <v>0.002449935103208905</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3603791457084426</v>
+        <v>0.7902563337024269</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7082489680853428</v>
+        <v>0.2454831448119137</v>
       </c>
       <c r="L5">
-        <v>0.3147116485990864</v>
+        <v>0.2815215766953116</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8344139247254319</v>
+        <v>1.612699314915353</v>
       </c>
       <c r="O5">
-        <v>1.425388373612179</v>
+        <v>2.912674005629569</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8647938056197688</v>
+        <v>0.4657545878745566</v>
       </c>
       <c r="C6">
-        <v>0.08398308895966622</v>
+        <v>0.129965528915573</v>
       </c>
       <c r="D6">
-        <v>0.05509019495384848</v>
+        <v>0.0342977141326628</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4558203014644633</v>
+        <v>0.8228444576376148</v>
       </c>
       <c r="G6">
-        <v>0.0008122357578685518</v>
+        <v>0.002450038151829465</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3603928953812137</v>
+        <v>0.7905070342363736</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7032322018906569</v>
+        <v>0.2439744311574827</v>
       </c>
       <c r="L6">
-        <v>0.3127927618445057</v>
+        <v>0.2810744661091888</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8361054688942517</v>
+        <v>1.613439327421214</v>
       </c>
       <c r="O6">
-        <v>1.424224265979618</v>
+        <v>2.913324079687456</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9079647935638775</v>
+        <v>0.477910665472848</v>
       </c>
       <c r="C7">
-        <v>0.08438478728571752</v>
+        <v>0.130087267765397</v>
       </c>
       <c r="D7">
-        <v>0.0569491712652237</v>
+        <v>0.03495181548657911</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4622799664601089</v>
+        <v>0.8226319896561876</v>
       </c>
       <c r="G7">
-        <v>0.0008112110831961202</v>
+        <v>0.002449329603211813</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3603546858516182</v>
+        <v>0.7888003229499958</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.738054050978576</v>
+        <v>0.2544464595037397</v>
       </c>
       <c r="L7">
-        <v>0.3261417842016385</v>
+        <v>0.2841931790394199</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.824450575767953</v>
+        <v>1.608348630120721</v>
       </c>
       <c r="O7">
-        <v>1.432539438573897</v>
+        <v>2.908945614632856</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.098984955723608</v>
+        <v>0.5318782722263222</v>
       </c>
       <c r="C8">
-        <v>0.08617815426209674</v>
+        <v>0.1306344953206704</v>
       </c>
       <c r="D8">
-        <v>0.06511374810025217</v>
+        <v>0.03780709039703822</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4926711754699227</v>
+        <v>0.8227124023369683</v>
       </c>
       <c r="G8">
-        <v>0.0008068487052928446</v>
+        <v>0.002446368885193167</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3616464255188063</v>
+        <v>0.782095825504161</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.891778146210811</v>
+        <v>0.3006513919282554</v>
       </c>
       <c r="L8">
-        <v>0.3858422578493759</v>
+        <v>0.2983328290718816</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.775193965647019</v>
+        <v>1.587017711763343</v>
       </c>
       <c r="O8">
-        <v>1.475257039795366</v>
+        <v>2.892933352474017</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.476341933951943</v>
+        <v>0.6388392174477531</v>
       </c>
       <c r="C9">
-        <v>0.08977272683959825</v>
+        <v>0.1317423517582981</v>
       </c>
       <c r="D9">
-        <v>0.08100384095194357</v>
+        <v>0.04329294905335246</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5597929632072294</v>
+        <v>0.8265253456790234</v>
       </c>
       <c r="G9">
-        <v>0.0007988480009044063</v>
+        <v>0.002441155680199358</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3698782168243362</v>
+        <v>0.771918150273244</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.194113525152773</v>
+        <v>0.3912086156619523</v>
       </c>
       <c r="L9">
-        <v>0.5063391277389968</v>
+        <v>0.3274133815234279</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6868100041687177</v>
+        <v>1.549259739661559</v>
       </c>
       <c r="O9">
-        <v>1.58281694424511</v>
+        <v>2.873419488581987</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.756225801764998</v>
+        <v>0.718087908014752</v>
       </c>
       <c r="C10">
-        <v>0.09246511125189727</v>
+        <v>0.1325764580045856</v>
       </c>
       <c r="D10">
-        <v>0.09262460335354916</v>
+        <v>0.04725348057240808</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6144454406974234</v>
+        <v>0.8315540409900208</v>
       </c>
       <c r="G10">
-        <v>0.0007932888874484146</v>
+        <v>0.002437683383364854</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3798507135334148</v>
+        <v>0.7662498691500446</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.417468240462568</v>
+        <v>0.4576920819700376</v>
       </c>
       <c r="L10">
-        <v>0.597536882126235</v>
+        <v>0.3496034065886278</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6272669651692437</v>
+        <v>1.523999074923352</v>
       </c>
       <c r="O10">
-        <v>1.678493494434633</v>
+        <v>2.866326930049979</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.884352417325886</v>
+        <v>0.7542796867443258</v>
       </c>
       <c r="C11">
-        <v>0.09370219311445283</v>
+        <v>0.1329600843135736</v>
       </c>
       <c r="D11">
-        <v>0.09790424229605321</v>
+        <v>0.04903988434727324</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6406443210304289</v>
+        <v>0.8343252597321751</v>
       </c>
       <c r="G11">
-        <v>0.0007908248330368182</v>
+        <v>0.002436180700956311</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3853457659727226</v>
+        <v>0.764063865556686</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.519510046744472</v>
+        <v>0.4879230335340594</v>
       </c>
       <c r="L11">
-        <v>0.6397419960048154</v>
+        <v>0.3598773841203666</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.60144180189595</v>
+        <v>1.513045410113914</v>
       </c>
       <c r="O11">
-        <v>1.726142233685664</v>
+        <v>2.864673228757312</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.933006228592319</v>
+        <v>0.7680042812030763</v>
       </c>
       <c r="C12">
-        <v>0.09417250962126644</v>
+        <v>0.1331059365256593</v>
       </c>
       <c r="D12">
-        <v>0.09990293192498712</v>
+        <v>0.04971413240183864</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.650773083563891</v>
+        <v>0.8354441519115952</v>
       </c>
       <c r="G12">
-        <v>0.0007899007065858242</v>
+        <v>0.002435622673632851</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3875738650825085</v>
+        <v>0.7632925055429709</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.558227722217623</v>
+        <v>0.4993684380289096</v>
       </c>
       <c r="L12">
-        <v>0.6558393974089114</v>
+        <v>0.363793650090301</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5918521468758002</v>
+        <v>1.508974839765262</v>
       </c>
       <c r="O12">
-        <v>1.744823782096375</v>
+        <v>2.86427310783705</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.922521434827217</v>
+        <v>0.765047586440204</v>
       </c>
       <c r="C13">
-        <v>0.09407113421679725</v>
+        <v>0.133074499121264</v>
       </c>
       <c r="D13">
-        <v>0.09947249868876185</v>
+        <v>0.04956902041800504</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6485821727534571</v>
+        <v>0.8352000886822921</v>
       </c>
       <c r="G13">
-        <v>0.0007900993412916495</v>
+        <v>0.00243574236602468</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3870872991701404</v>
+        <v>0.7634561220923288</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.549885537152448</v>
+        <v>0.496903581290411</v>
       </c>
       <c r="L13">
-        <v>0.6523672110882188</v>
+        <v>0.3629490691744195</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5939088709032436</v>
+        <v>1.509848069210468</v>
       </c>
       <c r="O13">
-        <v>1.740771255654295</v>
+        <v>2.864349226121107</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.888352374869982</v>
+        <v>0.755408429777674</v>
       </c>
       <c r="C14">
-        <v>0.09374084848354158</v>
+        <v>0.1329720721322545</v>
       </c>
       <c r="D14">
-        <v>0.09806868542254676</v>
+        <v>0.049095399888337</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6414733629996334</v>
+        <v>0.8344159192651119</v>
       </c>
       <c r="G14">
-        <v>0.0007907486271970237</v>
+        <v>0.002436134571531079</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3855260660378974</v>
+        <v>0.7639992743933632</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.522693753875501</v>
+        <v>0.4888647052491706</v>
       </c>
       <c r="L14">
-        <v>0.6410639584779148</v>
+        <v>0.360199062492768</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6006490018199004</v>
+        <v>1.512708971456423</v>
       </c>
       <c r="O14">
-        <v>1.727666122101454</v>
+        <v>2.864635779527021</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.867441016077777</v>
+        <v>0.7495066923171692</v>
       </c>
       <c r="C15">
-        <v>0.09353878413939754</v>
+        <v>0.1329094077240853</v>
       </c>
       <c r="D15">
-        <v>0.09720874312245797</v>
+        <v>0.04880500308928504</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6371465532534373</v>
+        <v>0.8339446410861342</v>
       </c>
       <c r="G15">
-        <v>0.0007911474889577081</v>
+        <v>0.002436376240252067</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3845892304250782</v>
+        <v>0.7643393196104427</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.506048413190229</v>
+        <v>0.4839403318907785</v>
       </c>
       <c r="L15">
-        <v>0.6341557635048503</v>
+        <v>0.3585179524038438</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6048024992830321</v>
+        <v>1.514471430712623</v>
       </c>
       <c r="O15">
-        <v>1.719723316982368</v>
+        <v>2.864840744896355</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.747870251604326</v>
+        <v>0.71572546690237</v>
       </c>
       <c r="C16">
-        <v>0.09238452013818943</v>
+        <v>0.1325514695946595</v>
       </c>
       <c r="D16">
-        <v>0.0922794626379897</v>
+        <v>0.04713642524401251</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6127614950624221</v>
+        <v>0.8313826627162797</v>
       </c>
       <c r="G16">
-        <v>0.0007934511928633785</v>
+        <v>0.002437783129806389</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3795116774650396</v>
+        <v>0.7664006271712935</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.41080951798952</v>
+        <v>0.4557161134488297</v>
       </c>
       <c r="L16">
-        <v>0.59479414054519</v>
+        <v>0.3489355843060622</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6289807868131039</v>
+        <v>1.524725743323578</v>
       </c>
       <c r="O16">
-        <v>1.675466309750021</v>
+        <v>2.866466645908815</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.67473711206577</v>
+        <v>0.6950374024507937</v>
       </c>
       <c r="C17">
-        <v>0.09167962881213754</v>
+        <v>0.1323329437069134</v>
       </c>
       <c r="D17">
-        <v>0.08925404684531912</v>
+        <v>0.04610887678352782</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5981552809047557</v>
+        <v>0.8299348048998851</v>
       </c>
       <c r="G17">
-        <v>0.0007948807893462681</v>
+        <v>0.002438665867032563</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3766487706071118</v>
+        <v>0.7677656989190993</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.352504934916965</v>
+        <v>0.4383978065851295</v>
       </c>
       <c r="L17">
-        <v>0.5708393714046309</v>
+        <v>0.3431030499017282</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6441422402556061</v>
+        <v>1.531154141407398</v>
       </c>
       <c r="O17">
-        <v>1.649403579844318</v>
+        <v>2.867866858742417</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.632747511120812</v>
+        <v>0.6831515053752071</v>
       </c>
       <c r="C18">
-        <v>0.09127534578419016</v>
+        <v>0.1322076487555677</v>
       </c>
       <c r="D18">
-        <v>0.08751325320907455</v>
+        <v>0.04551642334447337</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5898790495066208</v>
+        <v>0.8291475612151018</v>
       </c>
       <c r="G18">
-        <v>0.0007957091789913112</v>
+        <v>0.002439180833617161</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3750917245758885</v>
+        <v>0.7685877992380554</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.319009890761635</v>
+        <v>0.4284356124200883</v>
       </c>
       <c r="L18">
-        <v>0.5571281225892619</v>
+        <v>0.3397652432480385</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6529808898844669</v>
+        <v>1.534902178611851</v>
       </c>
       <c r="O18">
-        <v>1.63479840039318</v>
+        <v>2.868820261314511</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.618542812533377</v>
+        <v>0.6791294570278694</v>
       </c>
       <c r="C19">
-        <v>0.0911386577347173</v>
+        <v>0.1321652945777885</v>
       </c>
       <c r="D19">
-        <v>0.08692372712116025</v>
+        <v>0.04531558327250451</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5870978502078046</v>
+        <v>0.8288888347999688</v>
       </c>
       <c r="G19">
-        <v>0.0007959907199167718</v>
+        <v>0.002439356437336806</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3745796511795447</v>
+        <v>0.7688724943753797</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.307675543618814</v>
+        <v>0.4250624025069669</v>
       </c>
       <c r="L19">
-        <v>0.5524968701912911</v>
+        <v>0.3386380269726033</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6559935551063401</v>
+        <v>1.536179887542208</v>
       </c>
       <c r="O19">
-        <v>1.629918213286572</v>
+        <v>2.869168494330722</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.682514399531925</v>
+        <v>0.6972383079683766</v>
       </c>
       <c r="C20">
-        <v>0.09175454586493714</v>
+        <v>0.1323561653948246</v>
       </c>
       <c r="D20">
-        <v>0.0895761726600881</v>
+        <v>0.0462184097765217</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5996971037201391</v>
+        <v>0.8300842204784544</v>
       </c>
       <c r="G20">
-        <v>0.0007947279752238304</v>
+        <v>0.002438571149354261</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3769441900997137</v>
+        <v>0.7676165609002226</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.358707298372536</v>
+        <v>0.4402414943380109</v>
       </c>
       <c r="L20">
-        <v>0.573382389907934</v>
+        <v>0.3437221834199562</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6425159869803414</v>
+        <v>1.530464590970183</v>
       </c>
       <c r="O20">
-        <v>1.652137797514143</v>
+        <v>2.867702482817833</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.898384831935203</v>
+        <v>0.7582391590098894</v>
       </c>
       <c r="C21">
-        <v>0.09383781012882508</v>
+        <v>0.13300214181249</v>
       </c>
       <c r="D21">
-        <v>0.09848103249957063</v>
+        <v>0.04923457432175127</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6435556239967752</v>
+        <v>0.8346443632879073</v>
       </c>
       <c r="G21">
-        <v>0.0007905576761231897</v>
+        <v>0.002436019072886127</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3859805639696816</v>
+        <v>0.7638382059463282</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.530678443803652</v>
+        <v>0.4912259877329745</v>
       </c>
       <c r="L21">
-        <v>0.6443807716022434</v>
+        <v>0.3610061084839202</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5986640419568778</v>
+        <v>1.511866555612089</v>
       </c>
       <c r="O21">
-        <v>1.731497730363913</v>
+        <v>2.864545476028752</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.040265620649791</v>
+        <v>0.7982203672794981</v>
       </c>
       <c r="C22">
-        <v>0.09521023925702821</v>
+        <v>0.1334277031427504</v>
       </c>
       <c r="D22">
-        <v>0.1042975931327703</v>
+        <v>0.05119283355607251</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6734389435462163</v>
+        <v>0.8380297053105465</v>
       </c>
       <c r="G22">
-        <v>0.0007878841723636405</v>
+        <v>0.002434415271027407</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3927494031789536</v>
+        <v>0.7616977561465816</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.643525512872429</v>
+        <v>0.5245330416841227</v>
       </c>
       <c r="L22">
-        <v>0.69146011560548</v>
+        <v>0.372452102599695</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5711146961193685</v>
+        <v>1.500162512730676</v>
       </c>
       <c r="O22">
-        <v>1.787105765503668</v>
+        <v>2.86380004491582</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.964461576452806</v>
+        <v>0.7768714933042986</v>
       </c>
       <c r="C23">
-        <v>0.09447671764629462</v>
+        <v>0.1332002707898852</v>
       </c>
       <c r="D23">
-        <v>0.1011933572445614</v>
+        <v>0.05014887111499178</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6573726986413106</v>
+        <v>0.8361858431757554</v>
       </c>
       <c r="G23">
-        <v>0.0007893064363686443</v>
+        <v>0.002435265398947365</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3890545093498758</v>
+        <v>0.7628100621520417</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.583250523248381</v>
+        <v>0.5067579343876787</v>
       </c>
       <c r="L23">
-        <v>0.6662668331451442</v>
+        <v>0.3663294717631373</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5857137782309949</v>
+        <v>1.506367911736713</v>
       </c>
       <c r="O23">
-        <v>1.757068753492689</v>
+        <v>2.864077331165021</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.678998116070517</v>
+        <v>0.6962432537747532</v>
       </c>
       <c r="C24">
-        <v>0.09172067285579999</v>
+        <v>0.1323456658143627</v>
       </c>
       <c r="D24">
-        <v>0.08943054409800055</v>
+        <v>0.0461688952102719</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5989996696641597</v>
+        <v>0.8300165290554062</v>
       </c>
       <c r="G24">
-        <v>0.0007947970422385042</v>
+        <v>0.002438613947869376</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.376810354818808</v>
+        <v>0.767683870002827</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.355903132905468</v>
+        <v>0.4394079807199489</v>
       </c>
       <c r="L24">
-        <v>0.5722325031670863</v>
+        <v>0.3434422251972222</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6432508363139902</v>
+        <v>1.530776173920721</v>
       </c>
       <c r="O24">
-        <v>1.650900481710437</v>
+        <v>2.867776334906807</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.373865837387939</v>
+        <v>0.6097849651521017</v>
       </c>
       <c r="C25">
-        <v>0.08879158815901178</v>
+        <v>0.1314390331582302</v>
       </c>
       <c r="D25">
-        <v>0.07671608146703335</v>
+        <v>0.04182109805526579</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5407542676956609</v>
+        <v>0.8251026256397722</v>
       </c>
       <c r="G25">
-        <v>0.0008009549781244872</v>
+        <v>0.002442502896867545</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3669962806958615</v>
+        <v>0.7743536682210994</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.112160631466367</v>
+        <v>0.3667177677061773</v>
       </c>
       <c r="L25">
-        <v>0.4733169983427672</v>
+        <v>0.3194015098239902</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7098027553437309</v>
+        <v>1.55903858645513</v>
       </c>
       <c r="O25">
-        <v>1.55095798471794</v>
+        <v>2.877426200844724</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_134/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_134/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5465782294729991</v>
+        <v>1.150895792750816</v>
       </c>
       <c r="C2">
-        <v>0.130785156080016</v>
+        <v>0.08666919991436828</v>
       </c>
       <c r="D2">
-        <v>0.03857308883073074</v>
+        <v>0.06731707937647258</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8229815943559302</v>
+        <v>0.5013885284390724</v>
       </c>
       <c r="G2">
-        <v>0.002445606924888623</v>
+        <v>0.0008057048671183139</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7804802698082511</v>
+        <v>0.3623662573305815</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3131678726726363</v>
+        <v>0.933465322540485</v>
       </c>
       <c r="L2">
-        <v>0.3022555150796791</v>
+        <v>0.4022294566790094</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.581513752659225</v>
+        <v>0.7623897509184867</v>
       </c>
       <c r="O2">
-        <v>2.889399287511651</v>
+        <v>1.488366017422265</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5040314255320766</v>
+        <v>1.000527572686764</v>
       </c>
       <c r="C3">
-        <v>0.1303508687859534</v>
+        <v>0.08525085524951947</v>
       </c>
       <c r="D3">
-        <v>0.03634294272045224</v>
+        <v>0.06091724416432953</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8224782102880326</v>
+        <v>0.4766574800231425</v>
       </c>
       <c r="G3">
-        <v>0.002447861849060158</v>
+        <v>0.0008090647724803487</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7853910922506415</v>
+        <v>0.3606991606194327</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2768638645424062</v>
+        <v>0.8126119677421002</v>
       </c>
       <c r="L3">
-        <v>0.2909814548076071</v>
+        <v>0.3549474640569343</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.59778547477941</v>
+        <v>0.8001374916359167</v>
       </c>
       <c r="O3">
-        <v>2.900550683057574</v>
+        <v>1.452095850431874</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4780530861884245</v>
+        <v>0.9084701878646797</v>
       </c>
       <c r="C4">
-        <v>0.1300886977999873</v>
+        <v>0.08438949887305114</v>
       </c>
       <c r="D4">
-        <v>0.03495945229420983</v>
+        <v>0.05697090154309592</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8226300606944434</v>
+        <v>0.4623565508791501</v>
       </c>
       <c r="G4">
-        <v>0.002449321403288607</v>
+        <v>0.0008111991812517294</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.788780804884567</v>
+        <v>0.3603550176131058</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2545689930595643</v>
+        <v>0.7384615137989101</v>
       </c>
       <c r="L4">
-        <v>0.284229878446439</v>
+        <v>0.3262983928511574</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.608289682939263</v>
+        <v>0.8243153712766014</v>
       </c>
       <c r="O4">
-        <v>2.908896192161137</v>
+        <v>1.432639936721486</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4675039860581478</v>
+        <v>0.8710109342852377</v>
       </c>
       <c r="C5">
-        <v>0.1299830086135749</v>
+        <v>0.08404084207304052</v>
       </c>
       <c r="D5">
-        <v>0.03439213045037093</v>
+        <v>0.05535825207756773</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8228079177683654</v>
+        <v>0.4567403866688196</v>
       </c>
       <c r="G5">
-        <v>0.002449935103208905</v>
+        <v>0.0008120871953624587</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7902563337024269</v>
+        <v>0.3603791457084462</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2454831448119137</v>
+        <v>0.7082489680853996</v>
       </c>
       <c r="L5">
-        <v>0.2815215766953116</v>
+        <v>0.3147116485989443</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.612699314915353</v>
+        <v>0.8344139247254354</v>
       </c>
       <c r="O5">
-        <v>2.912674005629569</v>
+        <v>1.425388373612236</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4657545878745566</v>
+        <v>0.864793805619712</v>
       </c>
       <c r="C6">
-        <v>0.129965528915573</v>
+        <v>0.08398308895959161</v>
       </c>
       <c r="D6">
-        <v>0.0342977141326628</v>
+        <v>0.05509019495381295</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8228444576376148</v>
+        <v>0.455820301464442</v>
       </c>
       <c r="G6">
-        <v>0.002450038151829465</v>
+        <v>0.0008122357578684847</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7905070342363736</v>
+        <v>0.3603928953812137</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2439744311574827</v>
+        <v>0.7032322018906569</v>
       </c>
       <c r="L6">
-        <v>0.2810744661091888</v>
+        <v>0.3127927618444915</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.613439327421214</v>
+        <v>0.8361054688942504</v>
       </c>
       <c r="O6">
-        <v>2.913324079687456</v>
+        <v>1.424224265979603</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.477910665472848</v>
+        <v>0.9079647935640196</v>
       </c>
       <c r="C7">
-        <v>0.130087267765397</v>
+        <v>0.08438478728603016</v>
       </c>
       <c r="D7">
-        <v>0.03495181548657911</v>
+        <v>0.05694917126518106</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8226319896561876</v>
+        <v>0.4622799664600876</v>
       </c>
       <c r="G7">
-        <v>0.002449329603211813</v>
+        <v>0.0008112110831588016</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7888003229499958</v>
+        <v>0.3603546858516111</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2544464595037397</v>
+        <v>0.738054050978576</v>
       </c>
       <c r="L7">
-        <v>0.2841931790394199</v>
+        <v>0.3261417842016243</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.608348630120721</v>
+        <v>0.8244505757679561</v>
       </c>
       <c r="O7">
-        <v>2.908945614632856</v>
+        <v>1.432539438573883</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5318782722263222</v>
+        <v>1.098984955723608</v>
       </c>
       <c r="C8">
-        <v>0.1306344953206704</v>
+        <v>0.08617815426186226</v>
       </c>
       <c r="D8">
-        <v>0.03780709039703822</v>
+        <v>0.06511374810025927</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8227124023369683</v>
+        <v>0.4926711754699156</v>
       </c>
       <c r="G8">
-        <v>0.002446368885193167</v>
+        <v>0.000806848705352075</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.782095825504161</v>
+        <v>0.3616464255188063</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3006513919282554</v>
+        <v>0.8917781462108962</v>
       </c>
       <c r="L8">
-        <v>0.2983328290718816</v>
+        <v>0.385842257849319</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.587017711763343</v>
+        <v>0.7751939656469644</v>
       </c>
       <c r="O8">
-        <v>2.892933352474017</v>
+        <v>1.475257039795409</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6388392174477531</v>
+        <v>1.476341933952</v>
       </c>
       <c r="C9">
-        <v>0.1317423517582981</v>
+        <v>0.08977272683948456</v>
       </c>
       <c r="D9">
-        <v>0.04329294905335246</v>
+        <v>0.08100384095193647</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8265253456790234</v>
+        <v>0.5597929632072436</v>
       </c>
       <c r="G9">
-        <v>0.002441155680199358</v>
+        <v>0.000798848000879852</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.771918150273244</v>
+        <v>0.3698782168243362</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3912086156619523</v>
+        <v>1.194113525152801</v>
       </c>
       <c r="L9">
-        <v>0.3274133815234279</v>
+        <v>0.5063391277389115</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.549259739661559</v>
+        <v>0.6868100041687089</v>
       </c>
       <c r="O9">
-        <v>2.873419488581987</v>
+        <v>1.582816944245167</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.718087908014752</v>
+        <v>1.756225801764884</v>
       </c>
       <c r="C10">
-        <v>0.1325764580045856</v>
+        <v>0.0924651112514141</v>
       </c>
       <c r="D10">
-        <v>0.04725348057240808</v>
+        <v>0.09262460335354206</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8315540409900208</v>
+        <v>0.6144454406974234</v>
       </c>
       <c r="G10">
-        <v>0.002437683383364854</v>
+        <v>0.0007932888874475863</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7662498691500446</v>
+        <v>0.3798507135334219</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4576920819700376</v>
+        <v>1.41746824046254</v>
       </c>
       <c r="L10">
-        <v>0.3496034065886278</v>
+        <v>0.5975368821262919</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.523999074923352</v>
+        <v>0.6272669651692446</v>
       </c>
       <c r="O10">
-        <v>2.866326930049979</v>
+        <v>1.678493494434605</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7542796867443258</v>
+        <v>1.8843524173258</v>
       </c>
       <c r="C11">
-        <v>0.1329600843135736</v>
+        <v>0.09370219311444572</v>
       </c>
       <c r="D11">
-        <v>0.04903988434727324</v>
+        <v>0.09790424229582584</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8343252597321751</v>
+        <v>0.6406443210304218</v>
       </c>
       <c r="G11">
-        <v>0.002436180700956311</v>
+        <v>0.0007908248330072385</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.764063865556686</v>
+        <v>0.3853457659727226</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4879230335340594</v>
+        <v>1.519510046744557</v>
       </c>
       <c r="L11">
-        <v>0.3598773841203666</v>
+        <v>0.6397419960047586</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.513045410113914</v>
+        <v>0.6014418018959473</v>
       </c>
       <c r="O11">
-        <v>2.864673228757312</v>
+        <v>1.726142233685636</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7680042812030763</v>
+        <v>1.933006228592234</v>
       </c>
       <c r="C12">
-        <v>0.1331059365256593</v>
+        <v>0.09417250962117407</v>
       </c>
       <c r="D12">
-        <v>0.04971413240183864</v>
+        <v>0.09990293192486632</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8354441519115952</v>
+        <v>0.6507730835639052</v>
       </c>
       <c r="G12">
-        <v>0.002435622673632851</v>
+        <v>0.0007899007066103601</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7632925055429709</v>
+        <v>0.38757386508248</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4993684380289096</v>
+        <v>1.558227722217566</v>
       </c>
       <c r="L12">
-        <v>0.363793650090301</v>
+        <v>0.655839397408883</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.508974839765262</v>
+        <v>0.5918521468758033</v>
       </c>
       <c r="O12">
-        <v>2.86427310783705</v>
+        <v>1.744823782096319</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.765047586440204</v>
+        <v>1.922521434827274</v>
       </c>
       <c r="C13">
-        <v>0.133074499121264</v>
+        <v>0.09407113421680435</v>
       </c>
       <c r="D13">
-        <v>0.04956902041800504</v>
+        <v>0.09947249868886132</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8352000886822921</v>
+        <v>0.6485821727534571</v>
       </c>
       <c r="G13">
-        <v>0.00243574236602468</v>
+        <v>0.0007900993413159188</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7634561220923288</v>
+        <v>0.3870872991701404</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.496903581290411</v>
+        <v>1.549885537152448</v>
       </c>
       <c r="L13">
-        <v>0.3629490691744195</v>
+        <v>0.652367211088233</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.509848069210468</v>
+        <v>0.5939088709033058</v>
       </c>
       <c r="O13">
-        <v>2.864349226121107</v>
+        <v>1.740771255654295</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.755408429777674</v>
+        <v>1.888352374870237</v>
       </c>
       <c r="C14">
-        <v>0.1329720721322545</v>
+        <v>0.09374084848354158</v>
       </c>
       <c r="D14">
-        <v>0.049095399888337</v>
+        <v>0.09806868542253255</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8344159192651119</v>
+        <v>0.6414733629996263</v>
       </c>
       <c r="G14">
-        <v>0.002436134571531079</v>
+        <v>0.0007907486271957469</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7639992743933632</v>
+        <v>0.3855260660378974</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4888647052491706</v>
+        <v>1.522693753875529</v>
       </c>
       <c r="L14">
-        <v>0.360199062492768</v>
+        <v>0.6410639584779432</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.512708971456423</v>
+        <v>0.6006490018198902</v>
       </c>
       <c r="O14">
-        <v>2.864635779527021</v>
+        <v>1.72766612210151</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7495066923171692</v>
+        <v>1.867441016077805</v>
       </c>
       <c r="C15">
-        <v>0.1329094077240853</v>
+        <v>0.09353878413962491</v>
       </c>
       <c r="D15">
-        <v>0.04880500308928504</v>
+        <v>0.09720874312244376</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8339446410861342</v>
+        <v>0.6371465532534231</v>
       </c>
       <c r="G15">
-        <v>0.002436376240252067</v>
+        <v>0.0007911474889362181</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7643393196104427</v>
+        <v>0.3845892304250711</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4839403318907785</v>
+        <v>1.506048413190285</v>
       </c>
       <c r="L15">
-        <v>0.3585179524038438</v>
+        <v>0.6341557635046939</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.514471430712623</v>
+        <v>0.6048024992830126</v>
       </c>
       <c r="O15">
-        <v>2.864840744896355</v>
+        <v>1.719723316982424</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.71572546690237</v>
+        <v>1.747870251604525</v>
       </c>
       <c r="C16">
-        <v>0.1325514695946595</v>
+        <v>0.09238452013842391</v>
       </c>
       <c r="D16">
-        <v>0.04713642524401251</v>
+        <v>0.09227946263798259</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8313826627162797</v>
+        <v>0.6127614950624363</v>
       </c>
       <c r="G16">
-        <v>0.002437783129806389</v>
+        <v>0.0007934511928626014</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7664006271712935</v>
+        <v>0.3795116774650467</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4557161134488297</v>
+        <v>1.410809517989549</v>
       </c>
       <c r="L16">
-        <v>0.3489355843060622</v>
+        <v>0.5947941405451616</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.524725743323578</v>
+        <v>0.6289807868131043</v>
       </c>
       <c r="O16">
-        <v>2.866466645908815</v>
+        <v>1.67546630975005</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6950374024507937</v>
+        <v>1.674737112065571</v>
       </c>
       <c r="C17">
-        <v>0.1323329437069134</v>
+        <v>0.09167962881204517</v>
       </c>
       <c r="D17">
-        <v>0.04610887678352782</v>
+        <v>0.08925404684566729</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8299348048998851</v>
+        <v>0.5981552809047486</v>
       </c>
       <c r="G17">
-        <v>0.002438665867032563</v>
+        <v>0.0007948807893974092</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7677656989190993</v>
+        <v>0.3766487706071402</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4383978065851295</v>
+        <v>1.352504934916993</v>
       </c>
       <c r="L17">
-        <v>0.3431030499017282</v>
+        <v>0.5708393714046167</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.531154141407398</v>
+        <v>0.6441422402556078</v>
       </c>
       <c r="O17">
-        <v>2.867866858742417</v>
+        <v>1.649403579844318</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6831515053752071</v>
+        <v>1.632747511120726</v>
       </c>
       <c r="C18">
-        <v>0.1322076487555677</v>
+        <v>0.09127534578409779</v>
       </c>
       <c r="D18">
-        <v>0.04551642334447337</v>
+        <v>0.08751325320918824</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8291475612151018</v>
+        <v>0.5898790495066208</v>
       </c>
       <c r="G18">
-        <v>0.002439180833617161</v>
+        <v>0.0007957091789907482</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7685877992380554</v>
+        <v>0.3750917245758743</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4284356124200883</v>
+        <v>1.319009890761862</v>
       </c>
       <c r="L18">
-        <v>0.3397652432480385</v>
+        <v>0.5571281225892903</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.534902178611851</v>
+        <v>0.652980889884522</v>
       </c>
       <c r="O18">
-        <v>2.868820261314511</v>
+        <v>1.634798400393294</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6791294570278694</v>
+        <v>1.61854281253332</v>
       </c>
       <c r="C19">
-        <v>0.1321652945777885</v>
+        <v>0.09113865773452545</v>
       </c>
       <c r="D19">
-        <v>0.04531558327250451</v>
+        <v>0.0869237271212242</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8288888347999688</v>
+        <v>0.5870978502077904</v>
       </c>
       <c r="G19">
-        <v>0.002439356437336806</v>
+        <v>0.0007959907199158378</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7688724943753797</v>
+        <v>0.3745796511795447</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4250624025069669</v>
+        <v>1.307675543618842</v>
       </c>
       <c r="L19">
-        <v>0.3386380269726033</v>
+        <v>0.5524968701913906</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.536179887542208</v>
+        <v>0.6559935551064004</v>
       </c>
       <c r="O19">
-        <v>2.869168494330722</v>
+        <v>1.629918213286601</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6972383079683766</v>
+        <v>1.682514399532209</v>
       </c>
       <c r="C20">
-        <v>0.1323561653948246</v>
+        <v>0.09175454586484477</v>
       </c>
       <c r="D20">
-        <v>0.0462184097765217</v>
+        <v>0.08957617266025864</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8300842204784544</v>
+        <v>0.5996971037201178</v>
       </c>
       <c r="G20">
-        <v>0.002438571149354261</v>
+        <v>0.0007947279752003065</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7676165609002226</v>
+        <v>0.3769441900996924</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4402414943380109</v>
+        <v>1.358707298372536</v>
       </c>
       <c r="L20">
-        <v>0.3437221834199562</v>
+        <v>0.5733823899079624</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.530464590970183</v>
+        <v>0.6425159869802552</v>
       </c>
       <c r="O20">
-        <v>2.867702482817833</v>
+        <v>1.652137797514115</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7582391590098894</v>
+        <v>1.898384831935061</v>
       </c>
       <c r="C21">
-        <v>0.13300214181249</v>
+        <v>0.09383781012869008</v>
       </c>
       <c r="D21">
-        <v>0.04923457432175127</v>
+        <v>0.09848103249930773</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8346443632879073</v>
+        <v>0.6435556239967894</v>
       </c>
       <c r="G21">
-        <v>0.002436019072886127</v>
+        <v>0.0007905576761003057</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7638382059463282</v>
+        <v>0.3859805639696745</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4912259877329745</v>
+        <v>1.530678443803652</v>
       </c>
       <c r="L21">
-        <v>0.3610061084839202</v>
+        <v>0.6443807716022718</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.511866555612089</v>
+        <v>0.5986640419568046</v>
       </c>
       <c r="O21">
-        <v>2.864545476028752</v>
+        <v>1.731497730363856</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7982203672794981</v>
+        <v>2.040265620649905</v>
       </c>
       <c r="C22">
-        <v>0.1334277031427504</v>
+        <v>0.09521023925645977</v>
       </c>
       <c r="D22">
-        <v>0.05119283355607251</v>
+        <v>0.104297593132884</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8380297053105465</v>
+        <v>0.6734389435462305</v>
       </c>
       <c r="G22">
-        <v>0.002434415271027407</v>
+        <v>0.0007878841723623351</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7616977561465816</v>
+        <v>0.3927494031789607</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5245330416841227</v>
+        <v>1.643525512872372</v>
       </c>
       <c r="L22">
-        <v>0.372452102599695</v>
+        <v>0.6914601156054943</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.500162512730676</v>
+        <v>0.5711146961193543</v>
       </c>
       <c r="O22">
-        <v>2.86380004491582</v>
+        <v>1.787105765503753</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7768714933042986</v>
+        <v>1.964461576452919</v>
       </c>
       <c r="C23">
-        <v>0.1332002707898852</v>
+        <v>0.09447671764652199</v>
       </c>
       <c r="D23">
-        <v>0.05014887111499178</v>
+        <v>0.101193357244604</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8361858431757554</v>
+        <v>0.6573726986413035</v>
       </c>
       <c r="G23">
-        <v>0.002435265398947365</v>
+        <v>0.0007893064364258525</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7628100621520417</v>
+        <v>0.3890545093498758</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5067579343876787</v>
+        <v>1.583250523248495</v>
       </c>
       <c r="L23">
-        <v>0.3663294717631373</v>
+        <v>0.6662668331450874</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.506367911736713</v>
+        <v>0.5857137782309727</v>
       </c>
       <c r="O23">
-        <v>2.864077331165021</v>
+        <v>1.757068753492689</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6962432537747532</v>
+        <v>1.678998116070517</v>
       </c>
       <c r="C24">
-        <v>0.1323456658143627</v>
+        <v>0.09172067285579999</v>
       </c>
       <c r="D24">
-        <v>0.0461688952102719</v>
+        <v>0.08943054409800055</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8300165290554062</v>
+        <v>0.5989996696641597</v>
       </c>
       <c r="G24">
-        <v>0.002438613947869376</v>
+        <v>0.0007947970422384984</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.767683870002827</v>
+        <v>0.376810354818808</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4394079807199489</v>
+        <v>1.355903132905468</v>
       </c>
       <c r="L24">
-        <v>0.3434422251972222</v>
+        <v>0.5722325031672</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.530776173920721</v>
+        <v>0.6432508363140461</v>
       </c>
       <c r="O24">
-        <v>2.867776334906807</v>
+        <v>1.650900481710437</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6097849651521017</v>
+        <v>1.373865837387996</v>
       </c>
       <c r="C25">
-        <v>0.1314390331582302</v>
+        <v>0.08879158815886257</v>
       </c>
       <c r="D25">
-        <v>0.04182109805526579</v>
+        <v>0.07671608146685571</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8251026256397722</v>
+        <v>0.5407542676956467</v>
       </c>
       <c r="G25">
-        <v>0.002442502896867545</v>
+        <v>0.0008009549781821989</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7743536682210994</v>
+        <v>0.3669962806958402</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3667177677061773</v>
+        <v>1.112160631466367</v>
       </c>
       <c r="L25">
-        <v>0.3194015098239902</v>
+        <v>0.4733169983428809</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.55903858645513</v>
+        <v>0.7098027553436581</v>
       </c>
       <c r="O25">
-        <v>2.877426200844724</v>
+        <v>1.55095798471794</v>
       </c>
     </row>
   </sheetData>
